--- a/testData/Login_shrri.xlsx
+++ b/testData/Login_shrri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PraveenKumar187\Documents\S2P\Automation\Content Intelligence\Azure POC\TestRepo\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E9BE5A-C6BA-4359-9BA5-C0D6F6B7CAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F828C6CF-8BFC-4245-BE35-CAF7AC7C0E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
     <t>Verification of reallocation through document table</t>
   </si>
   <si>
-    <t>20240508_CI00000004</t>
+    <t>20240508_CI00000005</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
